--- a/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
+++ b/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6669463-06:00</t>
+    <t>2026-02-09T22:05:43.0647064-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,156 @@
     <t>Device.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Device.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.category|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Describes the relationship between the device and subject.</t>
+  </si>
+  <si>
+    <t>Element `DeviceAssociation.category` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Device.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.status|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the state of the Device association.</t>
+  </si>
+  <si>
+    <t>Element `DeviceAssociation.status` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.period|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.period from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Begin and end dates and times for the device association.</t>
+  </si>
+  <si>
+    <t>Element `DeviceAssociation.period` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:operation</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.operation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The details about the device when it is in use to describe its operation.</t>
+  </si>
+  <si>
+    <t>Element `DeviceAssociation.operation` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceAssociation.device` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:bodyStructure</t>
+  </si>
+  <si>
+    <t>bodyStructure</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.bodyStructure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceAssociation.bodyStructure` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Device.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +570,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -530,6 +656,9 @@
   </si>
   <si>
     <t>Device.udiCarrier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -745,20 +874,13 @@
     <t>Device.statusReason.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
+    <t>Device.statusReason.extension:statusReason</t>
+  </si>
+  <si>
+    <t>statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.statusReason|0.0.1-snapshot-3}
@@ -769,6 +891,9 @@
   </si>
   <si>
     <t>The reasons given for the current association status.</t>
+  </si>
+  <si>
+    <t>Element `DeviceAssociation.statusReason` is mapped to FHIR R4 element `Device.statusReason`.</t>
   </si>
   <si>
     <t>Device.statusReason.coding</t>
@@ -1567,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM72"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1576,9 +1701,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2517,11 +2642,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2544,9 +2669,7 @@
       <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2583,19 +2706,17 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2607,10 +2728,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2621,14 +2742,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2641,26 +2764,24 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2708,7 +2829,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2717,13 +2838,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2734,21 +2855,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2760,16 +2883,16 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2819,7 +2942,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2828,29 +2951,31 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2871,15 +2996,17 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2928,19 +3055,19 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2954,12 +3081,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2977,19 +3106,19 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3039,7 +3168,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3048,16 +3177,16 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3065,18 +3194,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -3091,15 +3222,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3148,22 +3281,22 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3174,21 +3307,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3200,16 +3335,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3259,7 +3394,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3271,10 +3406,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3285,14 +3420,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3308,22 +3443,22 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3372,7 +3507,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3384,7 +3519,7 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>127</v>
@@ -3398,21 +3533,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3421,18 +3556,20 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3481,13 +3618,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3496,25 +3633,25 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3533,13 +3670,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3590,7 +3727,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3605,21 +3742,21 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3630,7 +3767,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3639,21 +3776,21 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3701,13 +3838,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3716,10 +3853,10 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3727,14 +3864,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3750,20 +3887,18 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3812,7 +3947,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3824,35 +3959,35 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3861,19 +3996,19 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3923,69 +4058,71 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4010,13 +4147,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4034,22 +4171,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4060,14 +4197,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4080,23 +4217,21 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4121,13 +4256,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4145,7 +4280,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4160,13 +4295,13 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -4178,14 +4313,14 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4197,7 +4332,7 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>222</v>
@@ -4230,13 +4365,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4260,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4269,21 +4404,21 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4306,16 +4441,18 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4363,7 +4500,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4375,10 +4512,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4389,22 +4526,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4412,18 +4549,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4460,59 +4599,59 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4521,18 +4660,20 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4581,36 +4722,36 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4621,7 +4762,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4630,22 +4771,20 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4670,13 +4809,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4694,13 +4833,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4709,7 +4848,7 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4720,10 +4859,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4740,26 +4879,24 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4783,13 +4920,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4807,7 +4944,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4822,10 +4959,10 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4833,21 +4970,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4859,17 +4996,15 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4894,13 +5029,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4918,13 +5053,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4933,21 +5068,21 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4970,13 +5105,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5027,7 +5162,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5039,24 +5174,24 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5067,7 +5202,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5079,13 +5214,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5124,50 +5259,52 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5176,7 +5313,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5188,15 +5325,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5245,36 +5384,36 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5285,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5294,19 +5433,23 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5354,13 +5497,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5369,21 +5512,21 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5403,21 +5546,23 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5465,7 +5610,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5480,10 +5625,10 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5491,21 +5636,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5517,15 +5662,17 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5574,13 +5721,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5589,21 +5736,21 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5626,13 +5773,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5683,7 +5830,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5695,35 +5842,35 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>164</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5735,17 +5882,15 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5794,72 +5939,68 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5907,44 +6048,44 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>84</v>
@@ -5959,13 +6100,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6016,10 +6157,10 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>84</v>
@@ -6031,21 +6172,21 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6053,7 +6194,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>84</v>
@@ -6068,15 +6209,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6101,13 +6244,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6125,10 +6268,10 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>84</v>
@@ -6140,10 +6283,10 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6151,10 +6294,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6165,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6177,13 +6320,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6234,13 +6377,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6249,10 +6392,10 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6260,10 +6403,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6286,17 +6429,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6345,7 +6486,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6357,13 +6498,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6371,21 +6512,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6397,15 +6538,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6430,13 +6573,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6454,22 +6597,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6480,14 +6623,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6500,22 +6643,26 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6563,7 +6710,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6575,10 +6722,10 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6589,18 +6736,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -6615,13 +6762,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6672,10 +6819,10 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
@@ -6684,10 +6831,10 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6698,21 +6845,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6724,17 +6871,15 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6759,13 +6904,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6783,25 +6928,25 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>167</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>164</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6809,46 +6954,42 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6896,25 +7037,25 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>172</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6922,18 +7063,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>84</v>
@@ -6948,15 +7089,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7005,10 +7148,10 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>84</v>
@@ -7020,10 +7163,10 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7031,10 +7174,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7057,13 +7200,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7090,13 +7233,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7114,7 +7257,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7132,7 +7275,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7140,10 +7283,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7166,13 +7309,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7223,7 +7366,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7249,10 +7392,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7275,13 +7418,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7332,7 +7475,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7347,7 +7490,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7358,14 +7501,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7387,13 +7530,13 @@
         <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7443,7 +7586,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7455,10 +7598,10 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7469,14 +7612,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7498,16 +7641,16 @@
         <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7556,7 +7699,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7568,7 +7711,7 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>127</v>
@@ -7582,18 +7725,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -7608,13 +7751,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7665,10 +7808,10 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>84</v>
@@ -7691,10 +7834,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7717,13 +7860,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7774,7 +7917,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7935,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7800,10 +7943,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7811,10 +7954,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7826,13 +7969,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7883,13 +8026,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -7909,10 +8052,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7923,7 +8066,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -7935,13 +8078,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7992,22 +8135,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8018,21 +8161,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8044,15 +8187,17 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8101,22 +8246,22 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8127,14 +8272,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8147,24 +8292,26 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8212,7 +8359,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8224,10 +8371,10 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8238,46 +8385,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8325,22 +8468,22 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>172</v>
+        <v>368</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8351,10 +8494,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8362,7 +8505,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>84</v>
@@ -8377,13 +8520,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8434,10 +8577,10 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>84</v>
@@ -8452,7 +8595,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8460,10 +8603,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8471,10 +8614,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8486,13 +8629,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8543,13 +8686,13 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
@@ -8569,10 +8712,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8595,13 +8738,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8652,7 +8795,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8678,10 +8821,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8704,18 +8847,16 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>355</v>
+        <v>199</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>200</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -8763,7 +8904,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8775,13 +8916,13 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>359</v>
+        <v>203</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8789,21 +8930,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8815,15 +8956,17 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8872,25 +9015,25 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -8898,14 +9041,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8918,24 +9061,26 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>368</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>211</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -8983,7 +9128,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8995,13 +9140,13 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9009,10 +9154,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9020,7 +9165,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -9035,18 +9180,16 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>374</v>
+        <v>261</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9094,10 +9237,10 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>84</v>
@@ -9109,10 +9252,10 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9120,10 +9263,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9134,7 +9277,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9146,17 +9289,15 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9205,13 +9346,13 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
@@ -9220,10 +9361,10 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9231,10 +9372,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9257,13 +9398,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>386</v>
+        <v>261</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9314,7 +9455,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9329,7 +9470,7 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9340,10 +9481,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9354,7 +9495,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9363,19 +9504,21 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9423,13 +9566,13 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
@@ -9438,10 +9581,10 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>211</v>
+        <v>398</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9449,10 +9592,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9475,13 +9618,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9532,7 +9675,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -9547,12 +9690,672 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
+++ b/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0647064-06:00</t>
+    <t>2026-02-17T14:42:26.7838211-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Describes the relationship between the device and subject.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.category` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `DeviceAssociation.category` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>Indicates the state of the Device association.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.status` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `DeviceAssociation.status` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:period</t>
@@ -498,7 +498,7 @@
     <t>Begin and end dates and times for the device association.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.period` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `DeviceAssociation.period` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:operation</t>
@@ -517,7 +517,7 @@
     <t>The details about the device when it is in use to describe its operation.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.operation` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `DeviceAssociation.operation` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:device</t>
@@ -537,7 +537,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceAssociation.device` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `DeviceAssociation.device` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:bodyStructure</t>
@@ -553,7 +553,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceAssociation.bodyStructure` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `DeviceAssociation.bodyStructure` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.modifierExtension</t>
@@ -893,7 +893,7 @@
     <t>The reasons given for the current association status.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.statusReason` is mapped to FHIR R4 element `Device.statusReason`.</t>
+    <t>Element `DeviceAssociation.statusReason` has is mapped to FHIR R4 element `Device.statusReason`, but has no comparisons.</t>
   </si>
   <si>
     <t>Device.statusReason.coding</t>

--- a/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
+++ b/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7838211-06:00</t>
+    <t>2026-02-20T11:59:20.7795827-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Device|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Device</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.category|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.category}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.status}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.period|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.period}
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -883,7 +883,7 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.statusReason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.statusReason}
 </t>
   </si>
   <si>
@@ -1273,6 +1273,105 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Device.patient.id</t>
+  </si>
+  <si>
+    <t>Device.patient.extension</t>
+  </si>
+  <si>
+    <t>Device.patient.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceAssociation.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceAssociation.subject` has is mapped to FHIR R4 element `Device.patient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Device.patient.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Device.patient.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Device.patient.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Device.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Device.owner</t>
@@ -1692,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1711,7 +1810,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1725,7 +1824,7 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.7734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
@@ -9618,13 +9717,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>401</v>
+        <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>403</v>
+        <v>201</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9675,7 +9774,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>400</v>
+        <v>202</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -9687,13 +9786,13 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9701,10 +9800,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9727,17 +9826,15 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9774,19 +9871,19 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>406</v>
+        <v>207</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -9798,13 +9895,13 @@
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9812,12 +9909,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9838,18 +9937,18 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>413</v>
+        <v>164</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9897,25 +9996,25 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>412</v>
+        <v>207</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9923,10 +10022,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9946,19 +10045,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10008,7 +10107,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10017,16 +10116,16 @@
         <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>423</v>
+        <v>127</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10034,10 +10133,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10048,7 +10147,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10057,18 +10156,20 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10093,13 +10194,13 @@
         <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -10117,13 +10218,13 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
@@ -10132,7 +10233,7 @@
         <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>428</v>
+        <v>127</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10143,10 +10244,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10157,7 +10258,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10169,15 +10270,17 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10226,13 +10329,13 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
@@ -10241,7 +10344,7 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>251</v>
+        <v>425</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10252,10 +10355,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10275,18 +10378,20 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>433</v>
+        <v>199</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10335,7 +10440,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10350,12 +10455,781 @@
         <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
+++ b/StructureDefinition-profile-DeviceAssociation-for-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7795827-06:00</t>
+    <t>2026-02-21T13:36:54.1944012-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Device</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Device|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,9 +413,6 @@
     <t>Device.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -446,7 +443,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.category}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -469,7 +466,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -488,7 +485,7 @@
     <t>period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.period}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.period|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -507,7 +504,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -518,42 +515,6 @@
   </si>
   <si>
     <t>Element `DeviceAssociation.operation` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
-  </si>
-  <si>
-    <t>Device.extension:device</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceAssociation.device from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceAssociation.device` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
-  </si>
-  <si>
-    <t>Device.extension:bodyStructure</t>
-  </si>
-  <si>
-    <t>bodyStructure</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceAssociation.bodyStructure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BodyStructure in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.bodyStructure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceAssociation.bodyStructure` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.modifierExtension</t>
@@ -883,7 +844,7 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.statusReason}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.statusReason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -893,7 +854,7 @@
     <t>The reasons given for the current association status.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.statusReason` has is mapped to FHIR R4 element `Device.statusReason`, but has no comparisons.</t>
+    <t>Element `DeviceAssociation.statusReason` is mapped to FHIR R4 element `Device.statusReason` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Device.statusReason.coding</t>
@@ -1273,105 +1234,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Device.patient.id</t>
-  </si>
-  <si>
-    <t>Device.patient.extension</t>
-  </si>
-  <si>
-    <t>Device.patient.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceAssociation.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceAssociation.subject` has is mapped to FHIR R4 element `Device.patient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Device.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Device.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Device.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Device.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Device.owner</t>
@@ -1791,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1802,7 +1664,7 @@
   <cols>
     <col min="1" max="1" width="37.015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1810,7 +1672,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1824,7 +1686,7 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.7734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
@@ -2745,7 +2607,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2760,13 +2622,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2805,17 +2667,17 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2827,7 +2689,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2841,13 +2703,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -2869,16 +2731,16 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2928,7 +2790,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2937,10 +2799,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2954,13 +2816,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2982,16 +2844,16 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3041,7 +2903,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3050,10 +2912,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -3067,13 +2929,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -3095,16 +2957,16 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3154,7 +3016,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3163,10 +3025,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -3180,13 +3042,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3208,16 +3070,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3267,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3276,10 +3138,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3293,46 +3155,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3380,7 +3242,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3392,10 +3254,10 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3409,11 +3271,9 @@
         <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3422,7 +3282,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3434,7 +3294,7 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>170</v>
@@ -3493,7 +3353,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3505,60 +3365,56 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3606,22 +3462,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3655,7 +3511,7 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>181</v>
@@ -3735,18 +3591,18 @@
         <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3769,13 +3625,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3826,7 +3682,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3838,10 +3694,10 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3859,7 +3715,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3875,19 +3731,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3937,7 +3793,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3949,13 +3805,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3963,42 +3819,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4046,22 +3906,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4072,21 +3932,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4095,20 +3955,18 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4157,28 +4015,28 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -4197,19 +4055,19 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>210</v>
@@ -4217,12 +4075,8 @@
       <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4270,40 +4124,40 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4319,10 +4173,10 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>215</v>
@@ -4331,7 +4185,9 @@
         <v>216</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4379,7 +4235,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4394,25 +4250,25 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4428,10 +4284,10 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>222</v>
@@ -4439,7 +4295,9 @@
       <c r="M24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4488,7 +4346,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4503,7 +4361,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4521,7 +4379,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4537,21 +4395,21 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
         <v>229</v>
       </c>
+      <c r="N25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4614,25 +4472,25 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4648,21 +4506,21 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4686,13 +4544,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4710,7 +4568,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4725,25 +4583,25 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4756,22 +4614,22 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4797,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4821,7 +4679,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4836,21 +4694,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4861,7 +4719,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4873,18 +4731,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4908,37 +4764,37 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4947,10 +4803,10 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4958,10 +4814,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4978,23 +4834,21 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5019,13 +4873,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5043,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5055,13 +4909,13 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5069,10 +4923,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5095,13 +4949,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5128,31 +4982,31 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5164,13 +5018,13 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5178,12 +5032,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5192,7 +5048,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5204,15 +5060,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5261,22 +5119,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5287,10 +5145,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5310,19 +5168,23 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5358,19 +5220,19 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5382,10 +5244,10 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5396,14 +5258,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5412,7 +5272,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5421,10 +5281,10 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>273</v>
@@ -5435,7 +5295,9 @@
       <c r="N33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5483,22 +5345,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5509,21 +5371,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5532,23 +5394,21 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5596,13 +5456,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5611,21 +5471,21 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5645,23 +5505,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O35" t="s" s="2">
         <v>288</v>
       </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5709,7 +5565,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5724,25 +5580,25 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5761,17 +5617,15 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5820,7 +5674,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5835,21 +5689,21 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5872,13 +5726,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5929,7 +5783,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5944,21 +5798,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>127</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5981,13 +5835,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6038,7 +5892,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6053,21 +5907,21 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6090,15 +5944,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6147,7 +6003,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6162,21 +6018,21 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6187,7 +6043,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6199,13 +6055,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6256,13 +6112,13 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
@@ -6271,21 +6127,21 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6308,17 +6164,15 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6367,7 +6221,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6379,13 +6233,13 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6393,14 +6247,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6419,15 +6273,17 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6476,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6488,10 +6344,10 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6502,42 +6358,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6585,22 +6445,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6611,21 +6471,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6637,17 +6497,15 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6696,22 +6554,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6722,46 +6580,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6785,13 +6639,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6809,25 +6663,25 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6835,18 +6689,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -6861,13 +6715,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6918,10 +6772,10 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
@@ -6933,10 +6787,10 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6944,10 +6798,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6955,7 +6809,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -6970,15 +6824,17 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7003,13 +6859,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7027,10 +6883,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>84</v>
@@ -7042,10 +6898,10 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7053,10 +6909,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7079,13 +6935,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7112,13 +6968,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7136,7 +6992,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7151,10 +7007,10 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7162,10 +7018,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7176,7 +7032,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7188,17 +7044,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7247,13 +7101,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -7262,10 +7116,10 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7273,10 +7127,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7299,13 +7153,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>189</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7332,13 +7186,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7356,7 +7210,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7368,10 +7222,10 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7382,14 +7236,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7408,15 +7262,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7465,7 +7321,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7477,10 +7333,10 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7491,42 +7347,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7574,22 +7434,22 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7600,21 +7460,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7626,17 +7486,15 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7685,22 +7543,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7711,46 +7569,42 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7798,25 +7652,25 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7824,21 +7678,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7850,13 +7704,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7907,13 +7761,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7933,10 +7787,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7959,13 +7813,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>360</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>361</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8016,7 +7870,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>190</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8028,13 +7882,13 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8042,14 +7896,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8068,15 +7922,17 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8125,7 +7981,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8137,10 +7993,10 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8151,42 +8007,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8234,22 +8094,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8260,21 +8120,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8286,17 +8146,15 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8345,22 +8203,22 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8371,46 +8229,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8458,25 +8312,25 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8484,18 +8338,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>84</v>
@@ -8510,13 +8364,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8567,10 +8421,10 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>84</v>
@@ -8593,10 +8447,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8607,7 +8461,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8622,10 +8476,10 @@
         <v>181</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8676,13 +8530,13 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
@@ -8694,7 +8548,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8702,10 +8556,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8713,7 +8567,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -8728,13 +8582,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>376</v>
+        <v>189</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8785,10 +8639,10 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>84</v>
@@ -8797,10 +8651,10 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8811,14 +8665,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8837,15 +8691,17 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8894,7 +8750,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8906,10 +8762,10 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8920,42 +8776,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9003,22 +8863,22 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9029,21 +8889,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9055,17 +8915,15 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9114,22 +8972,22 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9140,14 +8998,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9160,26 +9018,22 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9227,7 +9081,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9239,10 +9093,10 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9253,10 +9107,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9264,10 +9118,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9279,13 +9133,13 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9336,13 +9190,13 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
@@ -9362,10 +9216,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9376,7 +9230,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9388,16 +9242,18 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9445,13 +9301,13 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
@@ -9460,10 +9316,10 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9471,10 +9327,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9485,7 +9341,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9497,13 +9353,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9554,13 +9410,13 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
@@ -9569,10 +9425,10 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9580,10 +9436,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9594,7 +9450,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9606,18 +9462,18 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
         <v>397</v>
       </c>
+      <c r="N71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9665,13 +9521,13 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
@@ -9680,10 +9536,10 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9717,16 +9573,18 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>199</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9774,7 +9632,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -9786,13 +9644,13 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9800,10 +9658,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9814,7 +9672,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9826,15 +9684,17 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9871,37 +9731,37 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9909,14 +9769,12 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9925,7 +9783,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9937,17 +9795,15 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9996,7 +9852,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10008,10 +9864,10 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10022,10 +9878,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10036,7 +9892,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -10048,17 +9904,15 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10107,22 +9961,22 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10133,10 +9987,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10156,20 +10010,18 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>98</v>
+        <v>421</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10194,13 +10046,13 @@
         <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -10218,7 +10070,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10233,1003 +10085,12 @@
         <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
         <v>76</v>
       </c>
     </row>
